--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1403.460003066991</v>
+        <v>246.8095716206934</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.768424684893282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.668856131193153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1215.409999999998</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>145.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,83 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -766,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -777,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -951,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.31430901573738</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -975,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.48909622152298</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -983,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>42.29065144902805</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.29065144902805</v>
+        <v>37.44700908884931</v>
       </c>
     </row>
     <row r="10">
@@ -1007,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.20683425157665</v>
+        <v>34.68569098426262</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,132 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1287,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1298,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1320,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1331,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>132.1149999999988</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1342,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>133.7649999999988</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1353,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>121.5599999999988</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1364,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>134.4949999999988</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1375,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.0099999999988</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1386,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.06999999999911</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1397,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.53999999999913</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1408,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90999999999913</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1419,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.9699999999991</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1430,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74499999999912</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1441,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000005</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1452,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000009</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1463,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000009</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1474,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1485,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1496,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.725</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1507,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000036</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1518,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1529,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1540,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1551,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.6100000000003</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1562,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>113.5950000000003</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1573,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.2400000000003</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1584,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>111.4400000000003</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1595,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>113.6550000000003</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1606,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>132.1149999999988</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1617,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>133.7649999999988</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1628,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>121.5599999999988</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -1639,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>134.4949999999988</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -1650,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>132.0099999999988</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -1661,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>177.6150000000005</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1672,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.8100000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -1683,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>178.4650000000009</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>177.2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
@@ -1705,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>179.1300000000009</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6100000000003</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1763,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5950000000003</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1774,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.24000000000029</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1785,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4400000000003</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1796,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>13.65500000000029</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1807,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>32.11499999999882</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1818,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76499999999885</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1829,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>21.55999999999883</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1840,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>34.4949999999988</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1851,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.00999999999883</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1862,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>77.61500000000052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1873,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>71.81000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1884,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.46500000000088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1895,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>77.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1906,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>79.13000000000088</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1964,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1975,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1986,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1997,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2231,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2269,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2280,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2291,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2302,7 +2099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2313,7 +2110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2324,7 +2121,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2335,7 +2132,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2346,7 +2143,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2357,89 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
